--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="858" activeTab="6"/>
+    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,24 @@
     <sheet name="箱包" sheetId="4" r:id="rId4"/>
     <sheet name="鞋" sheetId="5" r:id="rId5"/>
     <sheet name="数码" sheetId="6" r:id="rId6"/>
-    <sheet name="健康" sheetId="7" r:id="rId7"/>
+    <sheet name="海淘" sheetId="7" r:id="rId7"/>
+    <sheet name="稀奇古怪" sheetId="8" r:id="rId8"/>
+    <sheet name="健康" sheetId="9" r:id="rId9"/>
+    <sheet name="服饰" sheetId="10" r:id="rId10"/>
+    <sheet name="户外运动" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+  <si>
+    <t>购物经验快报</t>
+  </si>
+  <si>
+    <t>最及时，最实用的购物分享</t>
+  </si>
   <si>
     <t>最新购物</t>
   </si>
@@ -97,85 +107,193 @@
     <t>容易分享</t>
   </si>
   <si>
+    <t>购物经验</t>
+  </si>
+  <si>
+    <t>黑五攻略</t>
+  </si>
+  <si>
     <t>及时</t>
   </si>
   <si>
+    <t>双11攻略</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>省钱</t>
+  </si>
+  <si>
+    <t>不同网站购物攻略</t>
+  </si>
+  <si>
+    <t>有价值</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>转载</t>
+  </si>
+  <si>
+    <t>购物达人</t>
+  </si>
+  <si>
+    <t>好东西</t>
+  </si>
+  <si>
+    <t>不同季节，各种节日购物攻略</t>
+  </si>
+  <si>
+    <t>稀缺东西</t>
+  </si>
+  <si>
+    <t>商家促销手段识破</t>
+  </si>
+  <si>
+    <t>整理</t>
+  </si>
+  <si>
+    <t>通用痛点</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>原创</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
     <t>痛点收集</t>
   </si>
   <si>
-    <t>新</t>
-  </si>
-  <si>
-    <t>省钱</t>
-  </si>
-  <si>
-    <t>有价值</t>
-  </si>
-  <si>
-    <t>步骤</t>
-  </si>
-  <si>
-    <t>转载</t>
-  </si>
-  <si>
-    <t>购物达人</t>
-  </si>
-  <si>
-    <t>好东西</t>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>品牌故事</t>
+  </si>
+  <si>
+    <t>真假</t>
+  </si>
+  <si>
+    <t>适合</t>
   </si>
   <si>
     <t>购物网站介绍</t>
   </si>
   <si>
-    <t>稀缺东西</t>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>购物达人进驻</t>
   </si>
   <si>
     <t>购物社区介绍</t>
   </si>
   <si>
-    <t>整理</t>
-  </si>
-  <si>
     <t>小而美站点介绍</t>
   </si>
   <si>
-    <t>通用痛点</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>各细化品类痛点</t>
-  </si>
-  <si>
-    <t>化妆品，护肤品</t>
-  </si>
-  <si>
-    <t>原创</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>适合</t>
-  </si>
-  <si>
-    <t>社区</t>
-  </si>
-  <si>
-    <t>购物达人进驻</t>
-  </si>
-  <si>
-    <t>购物经验快报</t>
-  </si>
-  <si>
-    <t>最及时，最实用的购物分享</t>
+    <t>流行</t>
+  </si>
+  <si>
+    <t>攻略</t>
   </si>
   <si>
     <t>好购物app推荐</t>
+  </si>
+  <si>
+    <t>稀奇古怪介绍</t>
+  </si>
+  <si>
+    <t>纸尿裤</t>
+  </si>
+  <si>
+    <t>成分和成分分析</t>
+  </si>
+  <si>
+    <t>辅食</t>
+  </si>
+  <si>
+    <t>副作用</t>
+  </si>
+  <si>
+    <t>玩具</t>
+  </si>
+  <si>
+    <t>口碑</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>婴儿车</t>
+  </si>
+  <si>
+    <t>奶粉</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>化妆品</t>
+  </si>
+  <si>
+    <t>皮肤特性</t>
+  </si>
+  <si>
+    <t>明星使用</t>
+  </si>
+  <si>
+    <t>相互搭配</t>
+  </si>
+  <si>
+    <t>使用场合</t>
+  </si>
+  <si>
+    <t>护肤品</t>
+  </si>
+  <si>
+    <t>功效</t>
+  </si>
+  <si>
+    <t>手提包</t>
+  </si>
+  <si>
+    <t>场合搭配</t>
+  </si>
+  <si>
+    <t>使用包</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>亲子</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>差异性比较</t>
+  </si>
+  <si>
+    <t>评测</t>
+  </si>
+  <si>
+    <t>真假辨认</t>
+  </si>
+  <si>
+    <t>二手</t>
   </si>
 </sst>
 </file>
@@ -183,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -274,13 +392,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -632,10 +750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -644,204 +762,239 @@
     <col min="10" max="10" width="16.2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="7:13">
       <c r="G2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="7:11">
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="4:14">
-      <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="7:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -851,101 +1004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A9:K31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="23.8" customWidth="1"/>
-    <col min="9" max="9" width="22.8" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="20" spans="7:8">
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="22" spans="7:8">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -962,7 +1021,362 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="23.8" customWidth="1"/>
+    <col min="9" max="9" width="22.8" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -979,13 +1393,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -996,30 +1410,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="858"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -155,6 +155,9 @@
     <t>整理</t>
   </si>
   <si>
+    <t>适当的一些网站商品排行榜</t>
+  </si>
+  <si>
     <t>通用痛点</t>
   </si>
   <si>
@@ -203,12 +206,57 @@
     <t>攻略</t>
   </si>
   <si>
+    <t>wordpress站点</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>qcbang</t>
+  </si>
+  <si>
     <t>好购物app推荐</t>
   </si>
   <si>
     <t>稀奇古怪介绍</t>
   </si>
   <si>
+    <t>最新/快报</t>
+  </si>
+  <si>
+    <t>精选</t>
+  </si>
+  <si>
+    <t>口碑/评价</t>
+  </si>
+  <si>
+    <t>经验/知道;百科</t>
+  </si>
+  <si>
+    <t>标签/分类</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>打折促销导航</t>
+  </si>
+  <si>
+    <t>大商品，贵重商品，重要商品评价</t>
+  </si>
+  <si>
+    <t>最新资讯导航</t>
+  </si>
+  <si>
+    <t>二手等</t>
+  </si>
+  <si>
     <t>纸尿裤</t>
   </si>
   <si>
@@ -218,6 +266,9 @@
     <t>辅食</t>
   </si>
   <si>
+    <t>电商垂直网站</t>
+  </si>
+  <si>
     <t>副作用</t>
   </si>
   <si>
@@ -230,13 +281,37 @@
     <t>健康</t>
   </si>
   <si>
+    <t>亲子社区</t>
+  </si>
+  <si>
     <t>婴儿车</t>
   </si>
   <si>
+    <t>垂直母婴app</t>
+  </si>
+  <si>
     <t>奶粉</t>
   </si>
   <si>
+    <t>适用人群</t>
+  </si>
+  <si>
+    <t>哪里能买得到</t>
+  </si>
+  <si>
+    <t>不同牌子的成分</t>
+  </si>
+  <si>
+    <t>真假奶粉</t>
+  </si>
+  <si>
     <t>特性</t>
+  </si>
+  <si>
+    <t>不同牌子的价格</t>
+  </si>
+  <si>
+    <t>博客网站</t>
   </si>
   <si>
     <t>化妆品</t>
@@ -301,10 +376,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -750,10 +825,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -921,80 +996,147 @@
         <v>42</v>
       </c>
     </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12">
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12">
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10">
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1186,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1057,63 +1199,100 @@
     <col min="10" max="10" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1176,48 +1355,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1240,15 +1419,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -1258,15 +1437,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -1294,41 +1473,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1351,22 +1530,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>稀奇古怪介绍</t>
+  </si>
+  <si>
+    <t>页面规划</t>
   </si>
   <si>
     <t>最新/快报</t>
@@ -825,10 +828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1097,46 +1100,51 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="G31" t="s">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="H31" t="s">
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="I31" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="E34" t="s">
         <v>70</v>
       </c>
-      <c r="K31" t="s">
+      <c r="F34" t="s">
         <v>71</v>
       </c>
-      <c r="L31" t="s">
+      <c r="G34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="6:9">
-      <c r="F32" t="s">
+      <c r="H34" t="s">
         <v>73</v>
       </c>
-      <c r="I32" t="s">
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="6:10">
-      <c r="F33" t="s">
+      <c r="E35" t="s">
         <v>75</v>
       </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
         <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1201,45 +1209,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -1249,25 +1257,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1277,22 +1285,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1355,48 +1363,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1419,15 +1427,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -1437,15 +1445,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -1473,41 +1481,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1530,22 +1538,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858"/>
+    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -215,6 +215,9 @@
     <t>root</t>
   </si>
   <si>
+    <t>海淘每日快报</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
   </si>
   <si>
     <t>二手等</t>
+  </si>
+  <si>
+    <t>(资讯)快报</t>
   </si>
   <si>
     <t>纸尿裤</t>
@@ -828,10 +834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1084,67 +1090,81 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="10:12">
+    <row r="28" spans="4:12">
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1209,45 +1229,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -1257,25 +1277,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1285,22 +1305,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1363,48 +1383,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1427,15 +1447,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -1445,15 +1465,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -1481,41 +1501,41 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1538,22 +1558,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1589,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -4,27 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="858"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
-    <sheet name="母婴" sheetId="2" r:id="rId2"/>
-    <sheet name="美容护肤" sheetId="3" r:id="rId3"/>
-    <sheet name="箱包" sheetId="4" r:id="rId4"/>
-    <sheet name="鞋" sheetId="5" r:id="rId5"/>
-    <sheet name="数码" sheetId="6" r:id="rId6"/>
-    <sheet name="海淘" sheetId="7" r:id="rId7"/>
-    <sheet name="稀奇古怪" sheetId="8" r:id="rId8"/>
-    <sheet name="健康" sheetId="9" r:id="rId9"/>
-    <sheet name="服饰" sheetId="10" r:id="rId10"/>
-    <sheet name="户外运动" sheetId="11" r:id="rId11"/>
+    <sheet name="内容收集" sheetId="2" r:id="rId2"/>
+    <sheet name="制作" sheetId="3" r:id="rId3"/>
+    <sheet name="母婴" sheetId="4" r:id="rId4"/>
+    <sheet name="美容护肤" sheetId="5" r:id="rId5"/>
+    <sheet name="箱包" sheetId="6" r:id="rId6"/>
+    <sheet name="鞋" sheetId="7" r:id="rId7"/>
+    <sheet name="数码" sheetId="8" r:id="rId8"/>
+    <sheet name="海淘" sheetId="9" r:id="rId9"/>
+    <sheet name="稀奇古怪" sheetId="10" r:id="rId10"/>
+    <sheet name="健康" sheetId="11" r:id="rId11"/>
+    <sheet name="服饰" sheetId="12" r:id="rId12"/>
+    <sheet name="户外运动" sheetId="13" r:id="rId13"/>
+    <sheet name="礼物" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -215,55 +218,337 @@
     <t>root</t>
   </si>
   <si>
-    <t>海淘每日快报</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
     <t>qcbang</t>
   </si>
   <si>
+    <t>稀奇古怪介绍</t>
+  </si>
+  <si>
+    <t>页面规划</t>
+  </si>
+  <si>
+    <t>最新/快报</t>
+  </si>
+  <si>
+    <t>精选</t>
+  </si>
+  <si>
+    <t>口碑/评价</t>
+  </si>
+  <si>
+    <t>经验/知道;百科</t>
+  </si>
+  <si>
+    <t>标签/分类</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>打折促销导航</t>
+  </si>
+  <si>
+    <t>大商品，贵重商品，重要商品评价</t>
+  </si>
+  <si>
+    <t>最新资讯导航</t>
+  </si>
+  <si>
+    <t>二手等</t>
+  </si>
+  <si>
+    <t>自有内容</t>
+  </si>
+  <si>
+    <t>网站对比，好网站介绍, 信息整理，商品简单对比,深入专题分析</t>
+  </si>
+  <si>
+    <t>转载内容,经验分享</t>
+  </si>
+  <si>
+    <t>购物相关娱乐，搞笑</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>(资讯)快报</t>
+  </si>
+  <si>
+    <t>稀奇古怪购物分享</t>
+  </si>
+  <si>
     <t>好购物app推荐</t>
   </si>
   <si>
-    <t>稀奇古怪介绍</t>
-  </si>
-  <si>
-    <t>页面规划</t>
-  </si>
-  <si>
-    <t>最新/快报</t>
-  </si>
-  <si>
-    <t>精选</t>
-  </si>
-  <si>
-    <t>口碑/评价</t>
-  </si>
-  <si>
-    <t>经验/知道;百科</t>
-  </si>
-  <si>
-    <t>标签/分类</t>
-  </si>
-  <si>
-    <t>排行榜</t>
-  </si>
-  <si>
-    <t>打折促销导航</t>
-  </si>
-  <si>
-    <t>大商品，贵重商品，重要商品评价</t>
-  </si>
-  <si>
-    <t>最新资讯导航</t>
-  </si>
-  <si>
-    <t>二手等</t>
-  </si>
-  <si>
-    <t>(资讯)快报</t>
+    <t>搜索引擎</t>
+  </si>
+  <si>
+    <t>最新资讯</t>
+  </si>
+  <si>
+    <t>自己找</t>
+  </si>
+  <si>
+    <t>自己组织</t>
+  </si>
+  <si>
+    <t>搞笑</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>促销</t>
+  </si>
+  <si>
+    <t>内容轻松，容易阅读</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>wx公众号</t>
+  </si>
+  <si>
+    <t>htglhtgl</t>
+  </si>
+  <si>
+    <t>2627913563@qq.com</t>
+  </si>
+  <si>
+    <t>wxgwjykb</t>
+  </si>
+  <si>
+    <t>购物资讯</t>
+  </si>
+  <si>
+    <t>购物公众号</t>
+  </si>
+  <si>
+    <t>购物网站</t>
+  </si>
+  <si>
+    <t>导购app</t>
+  </si>
+  <si>
+    <t>论坛</t>
+  </si>
+  <si>
+    <t>公众号运营，规划</t>
+  </si>
+  <si>
+    <t>热门商品论坛</t>
+  </si>
+  <si>
+    <t>需要专业知识</t>
+  </si>
+  <si>
+    <t>各热门分类垂直网站,公众号</t>
+  </si>
+  <si>
+    <t>购物达人博客，公众号</t>
+  </si>
+  <si>
+    <t>热门购物分论坛</t>
+  </si>
+  <si>
+    <t>根据商品关键字</t>
+  </si>
+  <si>
+    <t>加入豆瓣小组</t>
+  </si>
+  <si>
+    <t>垂直电商网站</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>订阅微博</t>
+  </si>
+  <si>
+    <t>公众号</t>
+  </si>
+  <si>
+    <t>各种热门商品品牌官网</t>
+  </si>
+  <si>
+    <t>七条内容</t>
+  </si>
+  <si>
+    <t>头条</t>
+  </si>
+  <si>
+    <t>某种商品选购攻略,选购指南</t>
+  </si>
+  <si>
+    <t>大类分类</t>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>商品选购注意事项</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>商品tag找到相关文章</t>
+  </si>
+  <si>
+    <t>商品选购误区</t>
+  </si>
+  <si>
+    <t>稀奇古怪</t>
+  </si>
+  <si>
+    <t>稀奇古怪购买</t>
+  </si>
+  <si>
+    <t>搞笑购买</t>
+  </si>
+  <si>
+    <t>一期</t>
+  </si>
+  <si>
+    <t>通过初期商品搜索逆推找到好的公众号，网站，微博，博客等</t>
+  </si>
+  <si>
+    <t>今日推荐</t>
+  </si>
+  <si>
+    <t>购物网站，微博，app,购物达人</t>
+  </si>
+  <si>
+    <t>好商品</t>
+  </si>
+  <si>
+    <t>二期</t>
+  </si>
+  <si>
+    <t>增加搜索引擎搜索以上内容</t>
+  </si>
+  <si>
+    <t>经验与教训</t>
+  </si>
+  <si>
+    <t>故事</t>
+  </si>
+  <si>
+    <t>三期</t>
+  </si>
+  <si>
+    <t>自动化热点，痛点形成内容</t>
+  </si>
+  <si>
+    <t>购物百科</t>
+  </si>
+  <si>
+    <t>专业知识普及</t>
+  </si>
+  <si>
+    <t>窍门</t>
+  </si>
+  <si>
+    <t>知识库</t>
+  </si>
+  <si>
+    <t>推荐引擎</t>
+  </si>
+  <si>
+    <t>明星shopping</t>
+  </si>
+  <si>
+    <t>明星购物，购买新闻</t>
+  </si>
+  <si>
+    <t>最近火的明星</t>
+  </si>
+  <si>
+    <t>热点,火的事件购物相关</t>
+  </si>
+  <si>
+    <t>采录过的网址要进行记录，保证内容的去重</t>
+  </si>
+  <si>
+    <t>直接存入数据库表</t>
+  </si>
+  <si>
+    <t>真假来辩</t>
+  </si>
+  <si>
+    <t>真假辨认,品牌辨认</t>
+  </si>
+  <si>
+    <t>我爱海淘</t>
+  </si>
+  <si>
+    <t>败家往事</t>
+  </si>
+  <si>
+    <t>淘宝贝经历</t>
+  </si>
+  <si>
+    <t>攻略,故事</t>
+  </si>
+  <si>
+    <t>网友购买心得</t>
+  </si>
+  <si>
+    <t>晒</t>
+  </si>
+  <si>
+    <t>用户群</t>
+  </si>
+  <si>
+    <t>亲子</t>
+  </si>
+  <si>
+    <t>每周排行榜,每周热点</t>
+  </si>
+  <si>
+    <t>宅男</t>
+  </si>
+  <si>
+    <t>老年人</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>新闻娱乐</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>生活帮助</t>
+  </si>
+  <si>
+    <t>鸡汤</t>
+  </si>
+  <si>
+    <t>按需出发:</t>
+  </si>
+  <si>
+    <t>针对季节</t>
+  </si>
+  <si>
+    <t>针对人群</t>
+  </si>
+  <si>
+    <t>针对痛点</t>
+  </si>
+  <si>
+    <t>针对热点</t>
+  </si>
+  <si>
+    <t>针对功能</t>
   </si>
   <si>
     <t>纸尿裤</t>
@@ -323,24 +608,45 @@
     <t>博客网站</t>
   </si>
   <si>
-    <t>化妆品</t>
+    <t>玩具购买指引</t>
+  </si>
+  <si>
+    <t>玩具购买攻略</t>
+  </si>
+  <si>
+    <t>牌子</t>
+  </si>
+  <si>
+    <t>化妆品/护肤品</t>
+  </si>
+  <si>
+    <t>商品真假</t>
+  </si>
+  <si>
+    <t>店铺真假辨认</t>
+  </si>
+  <si>
+    <t>品牌介绍</t>
   </si>
   <si>
     <t>皮肤特性</t>
   </si>
   <si>
+    <t>哪里购买</t>
+  </si>
+  <si>
     <t>明星使用</t>
   </si>
   <si>
+    <t>店铺分享</t>
+  </si>
+  <si>
     <t>相互搭配</t>
   </si>
   <si>
     <t>使用场合</t>
   </si>
   <si>
-    <t>护肤品</t>
-  </si>
-  <si>
     <t>功效</t>
   </si>
   <si>
@@ -356,13 +662,10 @@
     <t>材料</t>
   </si>
   <si>
-    <t>女性</t>
-  </si>
-  <si>
     <t>男性</t>
   </si>
   <si>
-    <t>亲子</t>
+    <t>搭配</t>
   </si>
   <si>
     <t>年龄</t>
@@ -378,6 +681,27 @@
   </si>
   <si>
     <t>二手</t>
+  </si>
+  <si>
+    <t>购买流程</t>
+  </si>
+  <si>
+    <t>商品导购</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>颜色流行</t>
+  </si>
+  <si>
+    <t>掏经验</t>
+  </si>
+  <si>
+    <t>场合，</t>
+  </si>
+  <si>
+    <t>选择</t>
   </si>
 </sst>
 </file>
@@ -472,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +813,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,15 +1161,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.6" customWidth="1"/>
+    <col min="2" max="2" width="11.5"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="10" max="10" width="16.2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1090,75 +1419,103 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="4:12">
-      <c r="D28" t="s">
+    <row r="28" spans="10:12">
+      <c r="J28" t="s">
         <v>63</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>64</v>
       </c>
-      <c r="K28" t="s">
-        <v>65</v>
-      </c>
       <c r="L28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
         <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
         <v>71</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>72</v>
-      </c>
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10">
+      <c r="F40" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="41" spans="6:9">
+      <c r="F41" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
@@ -1166,8 +1523,94 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
+      <c r="F43" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11">
+      <c r="F44" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11">
+      <c r="F45" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8">
+      <c r="F48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>2627913563</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F53" r:id="rId1" display="2627913563@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
@@ -1180,7 +1623,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1197,6 +1640,56 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A4:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1208,13 +1701,390 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1229,45 +2099,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -1277,25 +2147,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1305,22 +2175,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -1342,11 +2212,19 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="20" spans="7:8">
@@ -1370,61 +2248,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +2337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B9"/>
@@ -1447,15 +2350,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -1465,115 +2368,20 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1586,14 +2394,59 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1603,14 +2456,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1620,14 +2494,35 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -434,7 +434,7 @@
     <t>增加搜索引擎搜索以上内容</t>
   </si>
   <si>
-    <t>经验与教训</t>
+    <t>达人经验</t>
   </si>
   <si>
     <t>故事</t>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>知识库</t>
+  </si>
+  <si>
+    <t>冷知识,黑知识</t>
   </si>
   <si>
     <t>推荐引擎</t>
@@ -1664,17 +1667,17 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1714,12 +1717,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1837,12 +1840,13 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1915,7 +1919,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C7" t="s">
@@ -1941,68 +1945,71 @@
       <c r="E8" t="s">
         <v>142</v>
       </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
       <c r="K8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -2010,42 +2017,42 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="10:10">
       <c r="J16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2053,22 +2060,22 @@
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2099,45 +2106,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -2147,25 +2154,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2175,22 +2182,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2214,16 +2221,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -2264,65 +2271,65 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -2350,15 +2357,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2368,15 +2375,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -2404,46 +2411,46 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
         <v>211</v>
-      </c>
-      <c r="B6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2466,22 +2473,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2509,17 +2516,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858" activeTab="2"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -377,6 +377,141 @@
     <t>各种热门商品品牌官网</t>
   </si>
   <si>
+    <t>得到种子网站</t>
+  </si>
+  <si>
+    <t>用知乎，文库，豆丁,最后是百度对，得到每一步的最佳算法, 进行不断改良</t>
+  </si>
+  <si>
+    <t>得到跟种子网站相似度较高候选网站</t>
+  </si>
+  <si>
+    <t>人工分析候选网站，优化进入种子网站</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>得到最好最全的主题网站</t>
+  </si>
+  <si>
+    <t>方式</t>
+  </si>
+  <si>
+    <t>衍生产品</t>
+  </si>
+  <si>
+    <t>阶段一:主题网站,论坛，微博，公众号获取</t>
+  </si>
+  <si>
+    <t>人工</t>
+  </si>
+  <si>
+    <t>确定关键词和关键词组合</t>
+  </si>
+  <si>
+    <t>主题网站列表大全</t>
+  </si>
+  <si>
+    <t>机器</t>
+  </si>
+  <si>
+    <t>得到关键词和关键词组合</t>
+  </si>
+  <si>
+    <t>根据多种关键词搜索出网站原始库</t>
+  </si>
+  <si>
+    <t>经验文章点击列表</t>
+  </si>
+  <si>
+    <t>找百度，分类网站,垂直网站, 新浪微博，alexa等,得到综合性主题网站, 录入种子网站</t>
+  </si>
+  <si>
+    <t>分析原始库网站，得到权重比较高的网站，放入到种子站中</t>
+  </si>
+  <si>
+    <t>对种子网站进行网页抓取，元素获取，丰富关键词库</t>
+  </si>
+  <si>
+    <t>纠正机器获得的关键词,并回到第一步，进入新一轮循环</t>
+  </si>
+  <si>
+    <t>阶段二:主题网页获取</t>
+  </si>
+  <si>
+    <t>网站网页抓取</t>
+  </si>
+  <si>
+    <t>算出内容网页特征</t>
+  </si>
+  <si>
+    <t>纠正特征抓取算法</t>
+  </si>
+  <si>
+    <t>循环抓取内容网页</t>
+  </si>
+  <si>
+    <t>根据分词对网页进行分类</t>
+  </si>
+  <si>
+    <t>根据分类对链接入库:主题，标题，权重，形成内容原始库</t>
+  </si>
+  <si>
+    <t>阶段三: 选内容</t>
+  </si>
+  <si>
+    <t>对原始库内容进行热度分析，得到热度值</t>
+  </si>
+  <si>
+    <t>热度定义引擎</t>
+  </si>
+  <si>
+    <t>真假定义引擎</t>
+  </si>
+  <si>
+    <t>根据文章内容，热度对原始库文章进行人工选取，得到每天内容</t>
+  </si>
+  <si>
+    <t>阶段四：公众号运营</t>
+  </si>
+  <si>
+    <t>公众号推广</t>
+  </si>
+  <si>
+    <t>公众号运营</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>在运营中不断优化前三阶段</t>
+  </si>
+  <si>
+    <t>加入更多购物相关QQ群,微信群,进行文章推广</t>
+  </si>
+  <si>
+    <t>找到跟公众号能形成合作的其他公众号，导购网站</t>
+  </si>
+  <si>
+    <t>阶段五:兴趣图谱</t>
+  </si>
+  <si>
+    <t>接入开放平台</t>
+  </si>
+  <si>
+    <t>形成消费者兴趣图谱</t>
+  </si>
+  <si>
+    <t>阶段六:推荐引擎</t>
+  </si>
+  <si>
+    <t>引入运营统计，形成消费者行为库</t>
+  </si>
+  <si>
+    <t>根据兴趣图谱进行内容推荐</t>
+  </si>
+  <si>
     <t>七条内容</t>
   </si>
   <si>
@@ -693,6 +828,15 @@
   </si>
   <si>
     <t>产地</t>
+  </si>
+  <si>
+    <t>快递</t>
+  </si>
+  <si>
+    <t>邮费</t>
+  </si>
+  <si>
+    <t>付款</t>
   </si>
   <si>
     <t>颜色流行</t>
@@ -799,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1166,7 +1313,7 @@
   <sheetPr/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1481,7 +1628,7 @@
       </c>
     </row>
     <row r="40" spans="6:10">
-      <c r="F40" s="6">
+      <c r="F40" s="7">
         <v>0.1</v>
       </c>
       <c r="G40" t="s">
@@ -1495,7 +1642,7 @@
       </c>
     </row>
     <row r="41" spans="6:9">
-      <c r="F41" s="6">
+      <c r="F41" s="7">
         <v>0.5</v>
       </c>
       <c r="G41" t="s">
@@ -1506,7 +1653,7 @@
       </c>
     </row>
     <row r="42" spans="6:9">
-      <c r="F42" s="6">
+      <c r="F42" s="7">
         <v>0.15</v>
       </c>
       <c r="G42" t="s">
@@ -1526,7 +1673,7 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="7">
         <v>0.1</v>
       </c>
       <c r="G43" t="s">
@@ -1534,7 +1681,7 @@
       </c>
     </row>
     <row r="44" spans="6:11">
-      <c r="F44" s="6">
+      <c r="F44" s="7">
         <v>0.05</v>
       </c>
       <c r="G44" t="s">
@@ -1548,7 +1695,7 @@
       </c>
     </row>
     <row r="45" spans="6:11">
-      <c r="F45" s="6">
+      <c r="F45" s="7">
         <v>0.1</v>
       </c>
       <c r="G45" t="s">
@@ -1643,7 +1790,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1667,17 +1814,17 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1717,12 +1864,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1735,13 +1882,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:J19"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
@@ -1825,6 +1975,282 @@
     <row r="19" spans="3:3">
       <c r="C19" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" ht="42.75" spans="1:10">
+      <c r="A27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" ht="28.5" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6"/>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6"/>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1839,8 +2265,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1851,165 +2277,165 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="3:15">
       <c r="C2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="N2" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="J10" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -2017,42 +2443,42 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="10:10">
       <c r="J16" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2060,22 +2486,22 @@
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2106,45 +2532,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -2154,25 +2580,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2182,22 +2608,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2221,16 +2647,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -2271,65 +2697,65 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -2357,15 +2783,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2375,15 +2801,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -2411,46 +2837,46 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2473,22 +2899,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2501,13 +2927,16 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -2516,17 +2945,32 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/boxsite/购物经验快报.xlsx
+++ b/boxsite/购物经验快报.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292">
   <si>
     <t>购物经验快报</t>
   </si>
@@ -413,51 +413,102 @@
     <t>主题网站列表大全</t>
   </si>
   <si>
+    <t>行业关键词</t>
+  </si>
+  <si>
     <t>机器</t>
   </si>
   <si>
     <t>得到关键词和关键词组合</t>
   </si>
   <si>
+    <t>找网站</t>
+  </si>
+  <si>
+    <t>找公众号</t>
+  </si>
+  <si>
     <t>根据多种关键词搜索出网站原始库</t>
   </si>
   <si>
     <t>经验文章点击列表</t>
   </si>
   <si>
+    <t>找网站并排名，根据排名搜索文章</t>
+  </si>
+  <si>
+    <t>通过搜狗搜关键词相关公众号</t>
+  </si>
+  <si>
     <t>找百度，分类网站,垂直网站, 新浪微博，alexa等,得到综合性主题网站, 录入种子网站</t>
   </si>
   <si>
+    <t>定义排名</t>
+  </si>
+  <si>
     <t>分析原始库网站，得到权重比较高的网站，放入到种子站中</t>
   </si>
   <si>
+    <t>搜狗排列</t>
+  </si>
+  <si>
     <t>对种子网站进行网页抓取，元素获取，丰富关键词库</t>
   </si>
   <si>
+    <t>文章更新时间</t>
+  </si>
+  <si>
     <t>纠正机器获得的关键词,并回到第一步，进入新一轮循环</t>
   </si>
   <si>
+    <t>平均每篇文章阅读数，点赞数</t>
+  </si>
+  <si>
+    <t>根据排名抓取公众号文章</t>
+  </si>
+  <si>
     <t>阶段二:主题网页获取</t>
   </si>
   <si>
     <t>网站网页抓取</t>
   </si>
   <si>
+    <t>根据排名搜索公众号文章</t>
+  </si>
+  <si>
     <t>算出内容网页特征</t>
   </si>
   <si>
     <t>纠正特征抓取算法</t>
   </si>
   <si>
+    <t>给出行业关键词</t>
+  </si>
+  <si>
     <t>循环抓取内容网页</t>
   </si>
   <si>
+    <t>找sitekey查找候选网站及其搜索规则</t>
+  </si>
+  <si>
     <t>根据分词对网页进行分类</t>
   </si>
   <si>
+    <t>(没建立规则)先搜索其中一个关键词网页</t>
+  </si>
+  <si>
     <t>根据分类对链接入库:主题，标题，权重，形成内容原始库</t>
   </si>
   <si>
+    <t>人工/机器建立搜索规则</t>
+  </si>
+  <si>
+    <t>搜索内容</t>
+  </si>
+  <si>
+    <t>保存url</t>
+  </si>
+  <si>
     <t>阶段三: 选内容</t>
   </si>
   <si>
@@ -468,6 +519,9 @@
   </si>
   <si>
     <t>真假定义引擎</t>
+  </si>
+  <si>
+    <t>递归搜索-&gt;保存url</t>
   </si>
   <si>
     <t>根据文章内容，热度对原始库文章进行人工选取，得到每天内容</t>
@@ -1814,17 +1868,17 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1864,12 +1918,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1882,10 +1936,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2014,7 +2068,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" ht="42.75" spans="1:10">
+    <row r="27" ht="42.75" spans="1:13">
       <c r="A27" s="6" t="s">
         <v>124</v>
       </c>
@@ -2027,141 +2081,198 @@
       <c r="J27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="M27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>130</v>
+      </c>
+      <c r="M28" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>134</v>
+      </c>
+      <c r="M29" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="6"/>
       <c r="B30" t="s">
         <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>137</v>
+      </c>
+      <c r="N30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O30">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="6"/>
       <c r="B31" t="s">
         <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="O31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>141</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="O33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="6"/>
-    </row>
-    <row r="35" ht="28.5" spans="1:3">
+      <c r="N34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" spans="1:14">
       <c r="A35" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>147</v>
+      </c>
+      <c r="N35" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>150</v>
+      </c>
+      <c r="M37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>152</v>
+      </c>
+      <c r="M38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="N39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="N40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="M41" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="I42" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>146</v>
+        <v>163</v>
+      </c>
+      <c r="N42" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2169,18 +2280,18 @@
         <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -2188,15 +2299,15 @@
         <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -2204,53 +2315,53 @@
         <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2277,165 +2388,165 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="3:15">
       <c r="C2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="K6" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K8" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="I14" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -2443,42 +2554,42 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="10:10">
       <c r="J16" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="H19" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2486,22 +2597,22 @@
         <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2532,45 +2643,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="5:5">
       <c r="E4" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="8:8">
       <c r="H5" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="8:8">
@@ -2580,25 +2691,25 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -2608,22 +2719,22 @@
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="K11" s="3"/>
     </row>
@@ -2647,16 +2758,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -2697,65 +2808,65 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:2">
@@ -2783,15 +2894,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -2801,15 +2912,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -2837,46 +2948,46 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2899,22 +3010,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2945,32 +3056,32 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
